--- a/ExcelReport/excel/form_CFP_pdf.xlsx
+++ b/ExcelReport/excel/form_CFP_pdf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carbon_2025\ExcelReport\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A461AB05-AAB0-4825-880B-B6C3F5CA1BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9266EE38-EE61-44FF-B705-6F63EC730D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16776" tabRatio="910" xr2:uid="{0BFDB211-9E44-439F-BD4B-8C07F5A57B68}"/>
   </bookViews>
@@ -536,51 +536,78 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="10" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="9" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -595,33 +622,6 @@
     </xf>
     <xf numFmtId="2" fontId="10" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="9" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -939,7 +939,7 @@
   <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2"/>
@@ -955,130 +955,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="42">
+      <c r="A1" s="37">
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="16"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="65"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="44"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="66" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="38" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="37" t="s">
+      <c r="I2" s="46"/>
+      <c r="J2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="38" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="66" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="38" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="37" t="s">
+      <c r="I3" s="46"/>
+      <c r="J3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
     </row>
     <row r="5" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="51" t="s">
+      <c r="A5" s="54"/>
+      <c r="B5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="34"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="60"/>
     </row>
     <row r="6" spans="1:15" ht="12" customHeight="1">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="54"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="63"/>
     </row>
     <row r="7" spans="1:15">
       <c r="B7" s="7"/>
@@ -1091,10 +1085,10 @@
       <c r="I7" s="10"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="61" t="s">
+      <c r="L7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="62"/>
+      <c r="M7" s="36"/>
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="24"/>
@@ -1107,10 +1101,10 @@
       <c r="I8" s="12"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="55" t="s">
+      <c r="L8" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="56"/>
+      <c r="M8" s="65"/>
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="24"/>
@@ -1123,10 +1117,10 @@
       <c r="I9" s="12"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
-      <c r="L9" s="57" t="s">
+      <c r="L9" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="58"/>
+      <c r="M9" s="67"/>
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="24"/>
@@ -1139,10 +1133,10 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="59" t="s">
+      <c r="L10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="60"/>
+      <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="26"/>
@@ -1675,6 +1669,9 @@
     <row r="61" spans="1:14" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="A1:A3"/>
@@ -1691,11 +1688,8 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="B5:M5"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.25" top="0" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0.5" right="0.25" top="0.25" bottom="0.25" header="0" footer="0.25"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/ExcelReport/excel/form_CFP_pdf.xlsx
+++ b/ExcelReport/excel/form_CFP_pdf.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carbon_2025\ExcelReport\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9266EE38-EE61-44FF-B705-6F63EC730D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E99FF94-EB87-49C0-88C9-E795FBED111E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16776" tabRatio="910" xr2:uid="{0BFDB211-9E44-439F-BD4B-8C07F5A57B68}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="910" xr2:uid="{0BFDB211-9E44-439F-BD4B-8C07F5A57B68}"/>
   </bookViews>
   <sheets>
     <sheet name="Fr-03" sheetId="52" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
     <definedName name="ผลรวม">#REF!</definedName>
     <definedName name="หน่วยผลิตภัณฑ์" comment="หน่วยผลิตภัณฑ์ที่ขอรับการรับรองคาร์บอนฟุตพริ้นท์">#REF!</definedName>
@@ -536,66 +539,6 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="9" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -608,6 +551,54 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -621,6 +612,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="9" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -647,6 +650,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Fr-01"/>
+      <sheetName val="Fr-02"/>
+      <sheetName val="Fr-03"/>
+      <sheetName val="Fr-04.1 "/>
+      <sheetName val="Fr-04.2 "/>
+      <sheetName val="Fr-04.3"/>
+      <sheetName val="Fr-04.4"/>
+      <sheetName val="Fr-05"/>
+      <sheetName val="Fr-06.1"/>
+      <sheetName val="Fr-06.2"/>
+      <sheetName val="Ref-01_LUC Factor"/>
+      <sheetName val="Version"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
+        <row r="10">
+          <cell r="E10" t="str">
+            <v>ผลรวม(kgCO2 eq.)</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>การได้มาของวัตถุดิบ</v>
+          </cell>
+          <cell r="B14"/>
+          <cell r="E14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>การผลิต</v>
+          </cell>
+          <cell r="B15"/>
+          <cell r="E15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>การกระจายสินค้า</v>
+          </cell>
+          <cell r="B16"/>
+          <cell r="E16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>การใช้งาน</v>
+          </cell>
+          <cell r="B17"/>
+          <cell r="E17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>การจัดการซาก</v>
+          </cell>
+          <cell r="B18"/>
+          <cell r="E18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>การเปลี่ยนแปลงการใช้ที่ดิน</v>
+          </cell>
+          <cell r="B19"/>
+          <cell r="E19">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -939,142 +1040,142 @@
   <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="5" width="10.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="1" customWidth="1"/>
+    <col min="1" max="5" width="10.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6328125" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1"/>
-    <col min="11" max="11" width="13.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.08984375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="37">
+      <c r="A1" s="41">
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
       <c r="H1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="16"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="44"/>
-    </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A2" s="38"/>
-      <c r="B2" s="45" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="48"/>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="19.75" customHeight="1">
+      <c r="A2" s="42"/>
+      <c r="B2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="45" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="50" t="s">
+      <c r="I2" s="50"/>
+      <c r="J2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A3" s="38"/>
-      <c r="B3" s="45" t="s">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="19.75" customHeight="1">
+      <c r="A3" s="42"/>
+      <c r="B3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="45" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="50" t="s">
+      <c r="I3" s="50"/>
+      <c r="J3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="52"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="37"/>
     </row>
     <row r="5" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A5" s="54"/>
-      <c r="B5" s="58" t="s">
+      <c r="A5" s="34"/>
+      <c r="B5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="60"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="12" customHeight="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="63"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="A6" s="57"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="59"/>
+    </row>
+    <row r="7" spans="1:15" ht="13">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1085,12 +1186,12 @@
       <c r="I7" s="10"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="36"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="M7" s="67"/>
+    </row>
+    <row r="8" spans="1:15" ht="13">
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -1101,12 +1202,12 @@
       <c r="I8" s="12"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="64" t="s">
+      <c r="L8" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="65"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="M8" s="61"/>
+    </row>
+    <row r="9" spans="1:15" ht="13">
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
       <c r="D9" s="25"/>
@@ -1117,12 +1218,12 @@
       <c r="I9" s="12"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
-      <c r="L9" s="66" t="s">
+      <c r="L9" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="67"/>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="M9" s="63"/>
+    </row>
+    <row r="10" spans="1:15" ht="13">
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
@@ -1133,10 +1234,10 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="33" t="s">
+      <c r="L10" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="34"/>
+      <c r="M10" s="65"/>
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="26"/>
@@ -1674,6 +1775,9 @@
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="J1:M1"/>
@@ -1685,9 +1789,6 @@
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:M3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.25" top="0.25" bottom="0.25" header="0" footer="0.25"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
